--- a/data-raw/rothamsted.sawyer.xlsx
+++ b/data-raw/rothamsted.sawyer.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A2ABE5-FAF7-4BF4-8813-277D09819DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="15168" windowHeight="7776" tabRatio="708"/>
+    <workbookView xWindow="41475" yWindow="3465" windowWidth="11385" windowHeight="12195" tabRatio="708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wheat grain" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,25 @@
     <sheet name="rootwt" sheetId="4" r:id="rId4"/>
     <sheet name="rootct" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -60,14 +79,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -105,7 +127,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -177,7 +199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,14 +372,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -365,7 +387,7 @@
     <col min="6" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>229</v>
       </c>
@@ -388,7 +410,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>196.375</v>
       </c>
@@ -414,7 +436,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>198.75</v>
       </c>
@@ -440,7 +462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>191.5</v>
       </c>
@@ -466,7 +488,7 @@
         <v>134.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>132.5</v>
       </c>
@@ -492,7 +514,7 @@
         <v>164.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>195.5</v>
       </c>
@@ -524,19 +546,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>282.5</v>
       </c>
@@ -559,7 +581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>253</v>
       </c>
@@ -585,7 +607,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>252</v>
       </c>
@@ -611,7 +633,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>248</v>
       </c>
@@ -637,7 +659,7 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>170.5</v>
       </c>
@@ -663,7 +685,7 @@
         <v>221.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>205.5</v>
       </c>
@@ -695,19 +717,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>613.5</v>
       </c>
@@ -730,7 +752,7 @@
         <v>782.5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>600</v>
       </c>
@@ -756,7 +778,7 @@
         <v>978.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>600.5</v>
       </c>
@@ -782,7 +804,7 @@
         <v>762.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>611.5</v>
       </c>
@@ -808,7 +830,7 @@
         <v>730.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>791.5</v>
       </c>
@@ -834,7 +856,7 @@
         <v>613.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>478</v>
       </c>
@@ -866,17 +888,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>3608</v>
       </c>
@@ -899,7 +921,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4080</v>
       </c>
@@ -925,7 +947,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4056</v>
       </c>
@@ -951,7 +973,7 @@
         <v>4435</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4056</v>
       </c>
@@ -977,7 +999,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4224</v>
       </c>
@@ -1003,7 +1025,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3811</v>
       </c>
@@ -1035,21 +1057,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1716</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1559</v>
       </c>
@@ -1098,7 +1120,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1507</v>
       </c>
@@ -1124,7 +1146,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1506</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1497</v>
       </c>
@@ -1176,7 +1198,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1360</v>
       </c>
